--- a/results/Outside.TextureConfusion.Translation.xlsx
+++ b/results/Outside.TextureConfusion.Translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>mne</t>
+  </si>
+  <si>
+    <t>fm2d</t>
+  </si>
+  <si>
+    <t>fvr</t>
   </si>
 </sst>
 </file>
@@ -544,11 +553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="510220240"/>
-        <c:axId val="510221416"/>
+        <c:axId val="196819096"/>
+        <c:axId val="196822624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510220240"/>
+        <c:axId val="196819096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510221416"/>
+        <c:crossAx val="196822624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -594,7 +603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510221416"/>
+        <c:axId val="196822624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -640,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510220240"/>
+        <c:crossAx val="196819096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1539,11 +1548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="510225336"/>
-        <c:axId val="510225728"/>
+        <c:axId val="196821448"/>
+        <c:axId val="196821840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="510225336"/>
+        <c:axId val="196821448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510225728"/>
+        <c:crossAx val="196821840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510225728"/>
+        <c:axId val="196821840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1573,7 +1582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510225336"/>
+        <c:crossAx val="196821448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2017,11 +2026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="510219064"/>
-        <c:axId val="510229648"/>
+        <c:axId val="197910528"/>
+        <c:axId val="197916800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510219064"/>
+        <c:axId val="197910528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510229648"/>
+        <c:crossAx val="197916800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510229648"/>
+        <c:axId val="197916800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2113,7 +2122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510219064"/>
+        <c:crossAx val="197910528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2168,7 +2177,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2208,15 +2217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2236,7 +2245,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6286500" y="428624"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2547,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,7 +2991,7 @@
         <v>1418.08</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3012,7 +3021,7 @@
         <v>3.7861099999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3042,7 +3051,7 @@
         <v>5.5620799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3072,7 +3081,7 @@
         <v>1018.79</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3102,7 +3111,7 @@
         <v>8240.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3132,7 +3141,7 @@
         <v>7.5712599999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3162,7 +3171,7 @@
         <v>1093.32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3192,7 +3201,7 @@
         <v>79.441400000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3222,7 +3231,7 @@
         <v>4159.91</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3252,7 +3261,7 @@
         <v>44.941400000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3282,7 +3291,7 @@
         <v>76.758300000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3312,7 +3321,7 @@
         <v>297.745</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3342,7 +3351,7 @@
         <v>10598.3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3373,8 +3382,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3414,715 +3441,1226 @@
         <f>MIN(G31:I31)</f>
         <v>0.39498342978445616</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.39498342978445616</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B48" si="2">B5</f>
+        <f t="shared" ref="B32:B48" si="3">B5</f>
         <v>2.1529099999999999</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C5/$B32</f>
+        <f t="shared" ref="C32:I32" si="4">C5/$B32</f>
         <v>0.78618706773622682</v>
       </c>
       <c r="D32">
+        <f t="shared" si="4"/>
+        <v>5.6444997700786388</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0.81963017497247925</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.98708724470600251</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>1.0429883274265994</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>0.9871058242100228</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0.79929955269844077</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J48" si="5">MIN(G32:I32)</f>
+        <v>0.79929955269844077</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L48" si="6">MIN(C32:J32)</f>
+        <v>0.78618706773622682</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P48" si="7">IF($L32=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q48" si="8">IF($L32=J32,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A48" si="9">A32+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>5.6444997700786388</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0.81963017497247925</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0.98708724470600251</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>1.0429883274265994</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>0.9871058242100228</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>0.79929955269844077</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J48" si="4">MIN(G32:I32)</f>
-        <v>0.79929955269844077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A48" si="5">A32+1</f>
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="2"/>
         <v>2.8668900000000002</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I33" si="6">C6/$B33</f>
+        <f t="shared" ref="C33:I33" si="10">C6/$B33</f>
         <v>0.6637785195804512</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6102850126792447</v>
       </c>
       <c r="E33">
+        <f t="shared" si="10"/>
+        <v>0.57295536277987646</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>0.97936439835501177</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>0.71757897931207681</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0.6975154261237787</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0.57712015459260724</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.57712015459260724</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
         <v>0.57295536277987646</v>
       </c>
-      <c r="F33">
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>13.792</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="11">C7/$B34</f>
+        <v>0.5999383700696056</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>242.98868909512763</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>0.59127392691415315</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>1.0199028422273781</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>0.6032127320185614</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0.76925754060324825</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>0.57428219257540603</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.57428219257540603</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="6"/>
-        <v>0.97936439835501177</v>
-      </c>
-      <c r="G33">
+        <v>0.57428219257540603</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>3.5868199999999999</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="12">C8/$B35</f>
+        <v>1.4323606983344579</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>1.8237408066197913</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>0.70315488371314983</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>1.118177103952805</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.77691381223479294</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>1.1457893064051166</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.78543389409002973</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.77691381223479294</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="6"/>
-        <v>0.71757897931207681</v>
-      </c>
-      <c r="H33">
+        <v>0.70315488371314983</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>18.534400000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:I36" si="13">C9/$B36</f>
+        <v>0.46900574067679557</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>0.69334318888121538</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0.49921659185082867</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>0.97537012258287281</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>0.56891509841160215</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>1.6860756215469612</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0.86205110497237569</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.56891509841160215</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="6"/>
-        <v>0.6975154261237787</v>
-      </c>
-      <c r="I33">
+        <v>0.46900574067679557</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>4.2443499999999998</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I37" si="14">C10/$B37</f>
+        <v>1.1845630072920472</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>1414.9893387680092</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>0.85659759444909112</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>1.0645375616996715</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.93200843474265782</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.93823789272797953</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.83083864431538401</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.83083864431538401</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="6"/>
-        <v>0.57712015459260724</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0.57712015459260724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+        <v>0.83083864431538401</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>5.5969699999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="15">C11/$B38</f>
+        <v>0.74187462144696159</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>1102.8288520395859</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.46246629872949119</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>1.0350546813722425</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0.54621697096822031</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.91231505618218434</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.45726348363489527</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
+        <v>0.45726348363489527</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.45726348363489527</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>13.792</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I34" si="7">C7/$B34</f>
-        <v>0.5999383700696056</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="7"/>
-        <v>242.98868909512763</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>0.59127392691415315</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>1.0199028422273781</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>0.6032127320185614</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
-        <v>0.76925754060324825</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
-        <v>0.57428219257540603</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>0.57428219257540603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>3.5868199999999999</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:I35" si="8">C8/$B35</f>
-        <v>1.4323606983344579</v>
-      </c>
-      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="8"/>
-        <v>1.8237408066197913</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="8"/>
-        <v>0.70315488371314983</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>1.118177103952805</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>0.77691381223479294</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>1.1457893064051166</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0.78543389409002973</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.77691381223479294</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>18.534400000000002</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:I36" si="9">C9/$B36</f>
-        <v>0.46900574067679557</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>0.69334318888121538</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
-        <v>0.49921659185082867</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>0.97537012258287281</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>0.56891509841160215</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>1.6860756215469612</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>0.86205110497237569</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.56891509841160215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>4.2443499999999998</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I37" si="10">C10/$B37</f>
-        <v>1.1845630072920472</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>1414.9893387680092</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="10"/>
-        <v>0.85659759444909112</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="10"/>
-        <v>1.0645375616996715</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
-        <v>0.93200843474265782</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="10"/>
-        <v>0.93823789272797953</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="10"/>
-        <v>0.83083864431538401</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.83083864431538401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>5.5969699999999998</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:I38" si="11">C11/$B38</f>
-        <v>0.74187462144696159</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="11"/>
-        <v>1102.8288520395859</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="11"/>
-        <v>0.46246629872949119</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
-        <v>1.0350546813722425</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="11"/>
-        <v>0.54621697096822031</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="11"/>
-        <v>0.91231505618218434</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="11"/>
-        <v>0.45726348363489527</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.45726348363489527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>9</v>
       </c>
       <c r="B39">
+        <f t="shared" si="3"/>
+        <v>5.2152099999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="16">C12/$B39</f>
+        <v>0.77638100862669002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>1.6003689209063487</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.55822488452046992</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>0.94632814402488108</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>0.5537245863541449</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>1.1354883120718053</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>0.57580039921690596</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.5537245863541449</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.5537245863541449</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>5.2152099999999999</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:I39" si="12">C12/$B39</f>
-        <v>0.77638100862669002</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="12"/>
-        <v>1.6003689209063487</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>0.55822488452046992</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="12"/>
-        <v>0.94632814402488108</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="12"/>
-        <v>0.5537245863541449</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="12"/>
-        <v>1.1354883120718053</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="12"/>
-        <v>0.57580039921690596</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.5537245863541449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>10</v>
       </c>
       <c r="B40">
+        <f t="shared" si="3"/>
+        <v>12.157999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="17">C13/$B40</f>
+        <v>0.71821927948675779</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>1.3874979437407469</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0.66957805560125017</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>1.0052886987991447</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>0.71591133410100349</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>0.90688435597960193</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>0.67067116302023355</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.67067116302023355</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.66957805560125017</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>12.157999999999999</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:I40" si="13">C13/$B40</f>
-        <v>0.71821927948675779</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="13"/>
-        <v>1.3874979437407469</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0.66957805560125017</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="13"/>
-        <v>1.0052886987991447</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="13"/>
-        <v>0.71591133410100349</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="13"/>
-        <v>0.90688435597960193</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="13"/>
-        <v>0.67067116302023355</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0.67067116302023355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>5.2994899999999996</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:I41" si="18">C14/$B41</f>
+        <v>0.86473792761190238</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="18"/>
+        <v>1258.1814476487361</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>1.0480121672085427</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>1.0744014990121693</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="18"/>
+        <v>0.79874289790149622</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="18"/>
+        <v>311.53752530903921</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>413.17938141217365</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B41">
+        <v>0.79874289790149622</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.79874289790149622</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>5.2994899999999996</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:I41" si="14">C14/$B41</f>
-        <v>0.86473792761190238</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="14"/>
-        <v>1258.1814476487361</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="14"/>
-        <v>1.0480121672085427</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="14"/>
-        <v>1.0744014990121693</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="14"/>
-        <v>0.79874289790149622</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="14"/>
-        <v>311.53752530903921</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="14"/>
-        <v>413.17938141217365</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.79874289790149622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>5.16038</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:I42" si="19">C15/$B42</f>
+        <v>0.64490018176955954</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="19"/>
+        <v>0.77772760920707396</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="19"/>
+        <v>0.63675155705587572</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="19"/>
+        <v>1.0038989376751326</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>0.6907340157120212</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="19"/>
+        <v>1530.3078455462582</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="19"/>
+        <v>477.95898751642318</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B42">
+        <v>0.6907340157120212</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.63675155705587572</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>5.16038</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:I42" si="15">C15/$B42</f>
-        <v>0.64490018176955954</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="15"/>
-        <v>0.77772760920707396</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="15"/>
-        <v>0.63675155705587572</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="15"/>
-        <v>1.0038989376751326</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="15"/>
-        <v>0.6907340157120212</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="15"/>
-        <v>1530.3078455462582</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="15"/>
-        <v>477.95898751642318</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0.6907340157120212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>19.019600000000001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="20">C16/$B43</f>
+        <v>0.77566300027340218</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>0.81458074828072091</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="20"/>
+        <v>1.1066215903594185</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="20"/>
+        <v>0.78782413930892337</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>224.63984521230731</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="20"/>
+        <v>74.558876106753033</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
+        <v>0.78782413930892337</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.77566300027340218</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>19.019600000000001</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:I43" si="16">C16/$B43</f>
-        <v>0.77566300027340218</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="16"/>
-        <v>0.81458074828072091</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="16"/>
-        <v>1.1066215903594185</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="16"/>
-        <v>0.78782413930892337</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="16"/>
-        <v>224.63984521230731</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="16"/>
-        <v>74.558876106753033</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.78782413930892337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>5.6236300000000004</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I44" si="21">C17/$B44</f>
+        <v>0.65621315769351818</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="21"/>
+        <v>1067.9596630646042</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="21"/>
+        <v>0.68534558639170784</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="21"/>
+        <v>1.0088110348653805</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="21"/>
+        <v>0.67693287076141206</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="21"/>
+        <v>1.8137750883326247</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="21"/>
+        <v>0.67325019604774849</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B44">
+        <v>0.67325019604774849</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.65621315769351818</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>5.6236300000000004</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:I44" si="17">C17/$B44</f>
-        <v>0.65621315769351818</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="17"/>
-        <v>1067.9596630646042</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="17"/>
-        <v>0.68534558639170784</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="17"/>
-        <v>1.0088110348653805</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
-        <v>0.67693287076141206</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>1.8137750883326247</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="17"/>
-        <v>0.67325019604774849</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.67325019604774849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>6.7829100000000002</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:I45" si="22">C18/$B45</f>
+        <v>0.82878292650204699</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>303.14127712147143</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="22"/>
+        <v>0.67945616262046826</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="22"/>
+        <v>0.94798692596540424</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="22"/>
+        <v>0.72108873625037029</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>0.8409915508240563</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="22"/>
+        <v>0.82001382887285834</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="B45">
+        <v>0.72108873625037029</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.67945616262046826</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>6.7829100000000002</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:I45" si="18">C18/$B45</f>
-        <v>0.82878292650204699</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="18"/>
-        <v>303.14127712147143</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="18"/>
-        <v>0.67945616262046826</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="18"/>
-        <v>0.94798692596540424</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="18"/>
-        <v>0.72108873625037029</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="18"/>
-        <v>0.8409915508240563</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="18"/>
-        <v>0.82001382887285834</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>0.72108873625037029</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>8.29725</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:I46" si="23">C19/$B46</f>
+        <v>0.8485606676911025</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="23"/>
+        <v>1.6996113170026212</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="23"/>
+        <v>0.7867462110940372</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="23"/>
+        <v>1.0937045406610624</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="23"/>
+        <v>0.98666666666666658</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>171.77378046943264</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="23"/>
+        <v>122.78646539516104</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="B46">
+        <v>0.98666666666666658</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>0.7867462110940372</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>8.29725</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:I46" si="19">C19/$B46</f>
-        <v>0.8485606676911025</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="19"/>
-        <v>1.6996113170026212</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="19"/>
-        <v>0.7867462110940372</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="19"/>
-        <v>1.0937045406610624</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="19"/>
-        <v>0.98666666666666658</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="19"/>
-        <v>171.77378046943264</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="19"/>
-        <v>122.78646539516104</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>0.98666666666666658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>6.8350400000000002</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:I47" si="24">C20/$B47</f>
+        <v>0.74992392144010855</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="24"/>
+        <v>979.96792996090733</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="24"/>
+        <v>0.79053231583136307</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="24"/>
+        <v>1.0173927292305531</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="24"/>
+        <v>0.75430429083077788</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="24"/>
+        <v>280.84254078981246</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="24"/>
+        <v>1205.625716894122</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>6.8350400000000002</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ref="C47:I47" si="20">C20/$B47</f>
+        <v>0.75430429083077788</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
         <v>0.74992392144010855</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="20"/>
-        <v>979.96792996090733</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="20"/>
-        <v>0.79053231583136307</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="20"/>
-        <v>1.0173927292305531</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="20"/>
-        <v>0.75430429083077788</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="20"/>
-        <v>280.84254078981246</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="20"/>
-        <v>1205.625716894122</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>0.75430429083077788</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>13.5052</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:I48" si="25">C21/$B48</f>
+        <v>0.63507759973935962</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="25"/>
+        <v>0.76060332316441071</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="25"/>
+        <v>0.59110268637265651</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="25"/>
+        <v>1.0061531854396826</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="25"/>
+        <v>0.79487900956668534</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="25"/>
+        <v>1.6912448538340785</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="25"/>
+        <v>0.56061813227497548</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>13.5052</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:I48" si="21">C21/$B48</f>
-        <v>0.63507759973935962</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="21"/>
-        <v>0.76060332316441071</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="21"/>
-        <v>0.59110268637265651</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="21"/>
-        <v>1.0061531854396826</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="21"/>
-        <v>0.79487900956668534</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="21"/>
-        <v>1.6912448538340785</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="21"/>
         <v>0.56061813227497548</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
+      <c r="L48">
+        <f t="shared" si="6"/>
         <v>0.56061813227497548</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f>ROUND(AVERAGE(C31:C48)*1000,2)</f>
+        <v>765.94</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:J49" si="26">ROUND(AVERAGE(D31:D48)*1000,2)</f>
+        <v>375694.14</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="26"/>
+        <v>676.02</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="26"/>
+        <v>1023.48</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="26"/>
+        <v>728.69</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="26"/>
+        <v>140726.59</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="26"/>
+        <v>127927.28</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="26"/>
+        <v>676.51</v>
+      </c>
+      <c r="L49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <f>AVERAGE(M31:M48)*100</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49:Q49" si="27">AVERAGE(N31:N48)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="27"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="27"/>
+        <v>38.888888888888893</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f>ROUND(M49,2)</f>
+        <v>27.78</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50:Q50" si="28">ROUND(N49,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="28"/>
+        <v>33.33</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="28"/>
+        <v>38.89</v>
       </c>
     </row>
   </sheetData>
